--- a/data/download_SH588000.xlsx
+++ b/data/download_SH588000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1035"/>
+  <dimension ref="A1:F1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25281,6 +25281,30 @@
         <v>1.096</v>
       </c>
     </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1036" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH588000.xlsx
+++ b/data/download_SH588000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1036"/>
+  <dimension ref="A1:F1040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25305,6 +25305,102 @@
         <v>1.143</v>
       </c>
     </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1037" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>1.179</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1038" t="n">
+        <v>1.186</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>1.189</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>1.151</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1039" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1040" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>1.182</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>1.145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH588000.xlsx
+++ b/data/download_SH588000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1040"/>
+  <dimension ref="A1:F1041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>1.146</v>
+        <v>1.133</v>
       </c>
       <c r="D1040" t="n">
         <v>1.177</v>
@@ -25398,7 +25398,31 @@
         <v>1.182</v>
       </c>
       <c r="F1040" t="n">
+        <v>1.132</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1041" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="E1041" t="n">
         <v>1.145</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>1.118</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH588000.xlsx
+++ b/data/download_SH588000.xlsx
@@ -25413,7 +25413,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>1.144</v>
+        <v>1.119</v>
       </c>
       <c r="D1041" t="n">
         <v>1.133</v>
@@ -25422,7 +25422,7 @@
         <v>1.145</v>
       </c>
       <c r="F1041" t="n">
-        <v>1.118</v>
+        <v>1.112</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH588000.xlsx
+++ b/data/download_SH588000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1041"/>
+  <dimension ref="A1:F1077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25425,6 +25425,870 @@
         <v>1.112</v>
       </c>
     </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1042" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1043" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1044" t="n">
+        <v>1.181</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>1.157</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1045" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>1.174</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1046" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>1.146</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1047" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>1.144</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1048" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1049" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>1.153</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1050" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>1.124</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1051" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>1.149</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>1.134</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1052" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>1.144</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1053" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1054" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>1.118</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1055" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>1.088</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1056" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1057" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1058" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1059" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1060" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1061" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>1.062</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1062" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1063" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1064" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>1.063</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1065" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1066" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1067" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>0.961</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1068" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>1.033</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1069" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>1.036</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>1.034</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1070" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>1.055</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1071" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>1.045</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1072" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>1.045</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1073" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1074" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>1.053</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1075" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>1.057</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1076" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>1.069</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>1.062</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1077" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>1.069</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH588000.xlsx
+++ b/data/download_SH588000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1077"/>
+  <dimension ref="A1:F1079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26289,6 +26289,54 @@
         <v>1.06</v>
       </c>
     </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1078" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1079" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>1.047</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH588000.xlsx
+++ b/data/download_SH588000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1079"/>
+  <dimension ref="A1:F1084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26337,6 +26337,126 @@
         <v>1.047</v>
       </c>
     </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1080" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>1.058</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>1.047</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1081" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1082" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1083" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>1.064</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>SH588000</t>
+        </is>
+      </c>
+      <c r="C1084" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>1.072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
